--- a/references.xlsx
+++ b/references.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\lostinspacetime\cs422\project-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\422Group4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main Icons" sheetId="1" r:id="rId1"/>
+    <sheet name="Wallpapers" sheetId="2" r:id="rId2"/>
+    <sheet name="Weather" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Door closed</t>
   </si>
@@ -53,9 +55,6 @@
     <t>New message</t>
   </si>
   <si>
-    <t>http://www.flaticon.com/free-icon/close-envelope_12194</t>
-  </si>
-  <si>
     <t>http://www.flaticon.com/free-icon/padlock_25239</t>
   </si>
   <si>
@@ -65,7 +64,121 @@
     <t>House alarm</t>
   </si>
   <si>
-    <t>http://www.flaticon.com/free-icon/shield_56755</t>
+    <t>http://robotmonkeys.net/wp-content/uploads/softrains-twitter_files/home-security.png</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/ambulance-light_63687</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/pointer-advice_69051</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/slight-rain_500</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/user-silhouette_64096</t>
+  </si>
+  <si>
+    <t>Outside light</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/streetlight_71082</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/question-mark_3711</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/note_60507</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/circle-with-check-symbol_60778</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/security-on_74373</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/mirror_113510</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/calendar_55281</t>
+  </si>
+  <si>
+    <t>Visitor Log</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/new-visitor_14563</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/settings_23408</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/cancel-button_60578</t>
+  </si>
+  <si>
+    <t>Deadbolt</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/key-hole_16526</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/speech-message_14578</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>https://wallpaperscraft.com/download/surface_spots_dark_texture_69707/1080x1920</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>https://wallpaperscraft.com/download/drops_glass_background_72327/1080x1920</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/sun_66275#term=sunny&amp;page=1&amp;position=3</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>https://wallpaperscraft.com/download/glass_grass_drops_macro_texture_94183/1080x1920</t>
   </si>
 </sst>
 </file>
@@ -101,8 +214,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,71 +497,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/references.xlsx
+++ b/references.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Icons" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Door closed</t>
   </si>
@@ -169,16 +169,82 @@
     <t>https://wallpaperscraft.com/download/drops_glass_background_72327/1080x1920</t>
   </si>
   <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>http://www.flaticon.com/free-icon/sun_66275#term=sunny&amp;page=1&amp;position=3</t>
-  </si>
-  <si>
     <t>Grass</t>
   </si>
   <si>
     <t>https://wallpaperscraft.com/download/glass_grass_drops_macro_texture_94183/1080x1920</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Scattered clouds</t>
+  </si>
+  <si>
+    <t>Broken clouds</t>
+  </si>
+  <si>
+    <t>Few clouds (day)</t>
+  </si>
+  <si>
+    <t>Few clouds (night)</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/sun-black-symboi_55582</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/clear-night-weather-symbol-of-crescent-moon-with-stars_56162</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/cloudy-day-symbol-of-weather-interface-of-black-cloud-hiding-the-sun_56062</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/cloudy-night-weather-symbol_55720</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/cloud-storm-weather-symbol_55538</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/clouds-black-storm-weather-symbol_56178</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/raindrops-of-rain-falling-of-dark-cloud_55567</t>
+  </si>
+  <si>
+    <t>Shower rain</t>
+  </si>
+  <si>
+    <t>Rain (day)</t>
+  </si>
+  <si>
+    <t>Rain (night)</t>
+  </si>
+  <si>
+    <t>Thunderstorm</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Mist</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/stormy-rainy-day-weather-interface-symbol_55880</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/stormy-rain-night-weather-symbol-of-interface_55848</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/snow-cloud_56344</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/cloud-with-electrical-lightning-bolt-weather-storm-symbol_56246</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/fog-cloud-striped-weather-interface-symbol_55621</t>
   </si>
 </sst>
 </file>
@@ -690,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
@@ -714,10 +780,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -727,20 +793,108 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/references.xlsx
+++ b/references.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\422Group4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main Icons" sheetId="1" r:id="rId1"/>
     <sheet name="Wallpapers" sheetId="2" r:id="rId2"/>
     <sheet name="Weather" sheetId="3" r:id="rId3"/>
+    <sheet name="Sounds" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Door closed</t>
   </si>
@@ -245,6 +241,12 @@
   </si>
   <si>
     <t>http://www.flaticon.com/free-icon/fog-cloud-striped-weather-interface-symbol_55621</t>
+  </si>
+  <si>
+    <t>doorbell1</t>
+  </si>
+  <si>
+    <t>http://www.orangefreesounds.com/doorbell-sound-tubular-chimes/</t>
   </si>
 </sst>
 </file>
@@ -555,7 +557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -795,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -900,4 +902,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/references.xlsx
+++ b/references.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karen\Desktop\422\422Group4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9738"/>
   </bookViews>
   <sheets>
     <sheet name="Main Icons" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Door closed</t>
   </si>
@@ -247,6 +252,36 @@
   </si>
   <si>
     <t>http://www.orangefreesounds.com/doorbell-sound-tubular-chimes/</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/frame-landscape_71619</t>
+  </si>
+  <si>
+    <t>Date Time Format</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/event-date-and-time-symbol_55238</t>
+  </si>
+  <si>
+    <t>Temperature Format</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/thermometer_120792</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/switch-keyboard-language_1996</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/fahrenheit_121769</t>
+  </si>
+  <si>
+    <t>Fahrenheit</t>
   </si>
 </sst>
 </file>
@@ -557,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -565,19 +600,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -593,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -601,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -609,7 +644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -620,7 +655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -628,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -636,7 +671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -644,7 +679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -652,7 +687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -660,7 +695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -668,7 +703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -676,7 +711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -684,7 +719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -692,7 +727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -700,7 +735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -708,7 +743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -716,7 +751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -724,7 +759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -732,7 +767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -740,12 +775,52 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -762,9 +837,9 @@
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -772,7 +847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -780,7 +855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -801,9 +876,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -811,7 +886,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -819,7 +894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -827,7 +902,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -835,7 +910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -843,7 +918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -851,7 +926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -859,7 +934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -867,7 +942,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -875,7 +950,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -883,7 +958,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -891,7 +966,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -908,13 +983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>73</v>
       </c>

--- a/references.xlsx
+++ b/references.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Door closed</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>Fahrenheit</t>
+  </si>
+  <si>
+    <t>Celsius</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/celsius_121768</t>
   </si>
 </sst>
 </file>
@@ -600,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -821,6 +827,14 @@
       </c>
       <c r="B26" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/references.xlsx
+++ b/references.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karen\Desktop\422\422Group4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9738"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Main Icons" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>Door closed</t>
   </si>
@@ -288,6 +283,33 @@
   </si>
   <si>
     <t>http://www.flaticon.com/free-icon/celsius_121768</t>
+  </si>
+  <si>
+    <t>Doorbell 1</t>
+  </si>
+  <si>
+    <t>http://www.orangefreesounds.com/doorbell-sound-fantasia/</t>
+  </si>
+  <si>
+    <t>Doorbell 2</t>
+  </si>
+  <si>
+    <t>Doorbell 3</t>
+  </si>
+  <si>
+    <t>http://www.orangefreesounds.com/funny-doorbell-sound-2/</t>
+  </si>
+  <si>
+    <t>http://www.orangefreesounds.com/funny-doorbell-sound-3/</t>
+  </si>
+  <si>
+    <t>Doorbell 4</t>
+  </si>
+  <si>
+    <t>Doorbell 5</t>
+  </si>
+  <si>
+    <t>http://www.orangefreesounds.com/jetsons-doorbell/</t>
   </si>
 </sst>
 </file>
@@ -598,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -606,16 +628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="38.68359375" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -835,6 +857,46 @@
       </c>
       <c r="B27" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +913,7 @@
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -890,7 +952,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -1001,7 +1063,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">

--- a/references.xlsx
+++ b/references.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\422Group4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>Door closed</t>
   </si>
@@ -150,9 +155,6 @@
     <t>http://www.flaticon.com/free-icon/key-hole_16526</t>
   </si>
   <si>
-    <t>http://www.flaticon.com/free-icon/speech-message_14578</t>
-  </si>
-  <si>
     <t>Abstract</t>
   </si>
   <si>
@@ -310,6 +312,21 @@
   </si>
   <si>
     <t>http://www.orangefreesounds.com/jetsons-doorbell/</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/note-black-paper-with-text-lines_34074</t>
+  </si>
+  <si>
+    <t>Landscapes</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/landscape_92744</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/fireworks_108980</t>
   </si>
 </sst>
 </file>
@@ -620,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -813,90 +830,106 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
         <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
         <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
         <v>79</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
         <v>81</v>
-      </c>
-      <c r="B25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
         <v>85</v>
       </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
         <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -917,26 +950,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -956,98 +989,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1067,10 +1100,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/references.xlsx
+++ b/references.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Icons" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Weather" sheetId="3" r:id="rId3"/>
     <sheet name="Sounds" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>Door closed</t>
   </si>
@@ -327,6 +327,42 @@
   </si>
   <si>
     <t>http://www.flaticon.com/free-icon/fireworks_108980</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>https://wallpaperscraft.com/download/fog_trees_forest_thicket_84863/1080x1920</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>https://wallpaperscraft.com/download/maldives_tropical_beach_sand_light_88000/1080x1920</t>
+  </si>
+  <si>
+    <t>waterfall</t>
+  </si>
+  <si>
+    <t>https://wallpaperscraft.com/download/waterfall_grass_moss_river_92483/1080x1920</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>https://wallpaperscraft.com/wallpaper/wreath_new_year_spruce_snow_winter_98974</t>
+  </si>
+  <si>
+    <t>fireworks</t>
+  </si>
+  <si>
+    <t>https://wallpaperscraft.com/wallpaper/sydney_fireworks_holiday_joy_872</t>
+  </si>
+  <si>
+    <t>Halloween</t>
+  </si>
+  <si>
+    <t>https://wallpaperscraft.com/wallpaper/halloween_holiday_pumpkin_background_62754</t>
   </si>
 </sst>
 </file>
@@ -647,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -940,10 +976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,6 +1006,54 @@
       </c>
       <c r="B3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/references.xlsx
+++ b/references.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\422Group4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinkal\Desktop\422Group4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Wallpapers" sheetId="2" r:id="rId2"/>
     <sheet name="Weather" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,8 +224,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>

--- a/references.xlsx
+++ b/references.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main Icons" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>Door closed</t>
   </si>
@@ -363,6 +363,24 @@
   </si>
   <si>
     <t>https://wallpaperscraft.com/wallpaper/halloween_holiday_pumpkin_background_62754</t>
+  </si>
+  <si>
+    <t>Textures</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/bricks_104031</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/left-arrow-key_60965</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/keyboard-right-arrow-button_60758</t>
+  </si>
+  <si>
+    <t>Arrow left</t>
+  </si>
+  <si>
+    <t>Arrow right</t>
   </si>
 </sst>
 </file>
@@ -398,9 +416,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,290 +707,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -976,83 +1003,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1066,104 +1120,107 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1176,17 +1233,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
     </row>

--- a/references.xlsx
+++ b/references.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\422Group4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Main Icons" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Weather" sheetId="3" r:id="rId3"/>
     <sheet name="Sounds" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Door closed</t>
   </si>
@@ -245,9 +240,6 @@
     <t>http://www.flaticon.com/free-icon/fog-cloud-striped-weather-interface-symbol_55621</t>
   </si>
   <si>
-    <t>doorbell1</t>
-  </si>
-  <si>
     <t>http://www.orangefreesounds.com/doorbell-sound-tubular-chimes/</t>
   </si>
   <si>
@@ -363,6 +355,12 @@
   </si>
   <si>
     <t>https://wallpaperscraft.com/wallpaper/halloween_holiday_pumpkin_background_62754</t>
+  </si>
+  <si>
+    <t>http://www.rapidtyping.com/img/manual/options-language.png</t>
+  </si>
+  <si>
+    <t>Language Flags</t>
   </si>
 </sst>
 </file>
@@ -398,9 +396,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -866,106 +867,74 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
         <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
         <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
         <v>78</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
         <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
         <v>98</v>
       </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>94</v>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -978,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,50 +979,50 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
         <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
         <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
         <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
         <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
         <v>110</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
         <v>106</v>
-      </c>
-      <c r="B11" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1174,20 +1143,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
-        <v>73</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/references.xlsx
+++ b/references.xlsx
@@ -396,11 +396,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,255 +690,256 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -948,80 +954,83 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1035,104 +1044,107 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1151,48 +1163,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>93</v>
       </c>
     </row>

--- a/references.xlsx
+++ b/references.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\422Group4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Icons" sheetId="1" r:id="rId1"/>
-    <sheet name="Wallpapers" sheetId="2" r:id="rId2"/>
-    <sheet name="Weather" sheetId="3" r:id="rId3"/>
-    <sheet name="Sounds" sheetId="4" r:id="rId4"/>
+    <sheet name="Videos" sheetId="5" r:id="rId2"/>
+    <sheet name="Wallpapers" sheetId="2" r:id="rId3"/>
+    <sheet name="Weather" sheetId="3" r:id="rId4"/>
+    <sheet name="Sounds" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Door closed</t>
   </si>
@@ -60,9 +66,6 @@
     <t>House alarm</t>
   </si>
   <si>
-    <t>http://robotmonkeys.net/wp-content/uploads/softrains-twitter_files/home-security.png</t>
-  </si>
-  <si>
     <t>Emergency</t>
   </si>
   <si>
@@ -361,6 +364,36 @@
   </si>
   <si>
     <t>Language Flags</t>
+  </si>
+  <si>
+    <t>Grandma</t>
+  </si>
+  <si>
+    <t>http://www.shutterstock.com/video/clip-7209262-stock-footage-silly-grandma-making-funny-faces-at-the-camera.html</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/photo-camera_3901</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/chat-bubbles-with-ellipsis_61516</t>
+  </si>
+  <si>
+    <t>Cool Guy</t>
+  </si>
+  <si>
+    <t>https://www.shutterstock.com/video/clip-11529716-stock-footage-handsome-man-in-a-light-blue-jacket-standing-outside-on-a-sunny-summer-day-with-a-green-background.html</t>
+  </si>
+  <si>
+    <t>Couple</t>
+  </si>
+  <si>
+    <t>http://www.shutterstock.com/video/clip-5574770-stock-footage-young-happy-couple-standing-on-house-porch.html</t>
   </si>
 </sst>
 </file>
@@ -679,7 +712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -687,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +733,7 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -716,7 +749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -724,26 +757,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -751,196 +781,212 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -950,6 +996,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -964,74 +1049,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1054,98 +1139,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1170,42 +1255,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/references.xlsx
+++ b/references.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Icons" sheetId="1" r:id="rId1"/>
@@ -348,12 +348,6 @@
     <t>https://wallpaperscraft.com/wallpaper/wreath_new_year_spruce_snow_winter_98974</t>
   </si>
   <si>
-    <t>fireworks</t>
-  </si>
-  <si>
-    <t>https://wallpaperscraft.com/wallpaper/sydney_fireworks_holiday_joy_872</t>
-  </si>
-  <si>
     <t>Halloween</t>
   </si>
   <si>
@@ -394,6 +388,12 @@
   </si>
   <si>
     <t>http://www.shutterstock.com/video/clip-5574770-stock-footage-young-happy-couple-standing-on-house-porch.html</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>https://wallpaperscraft.com/download/pie_candles_birthday_1371/1080x1920</t>
   </si>
 </sst>
 </file>
@@ -967,26 +967,26 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1007,26 +1007,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,18 +1097,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/references.xlsx
+++ b/references.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Icons" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Door closed</t>
   </si>
@@ -394,6 +394,18 @@
   </si>
   <si>
     <t>https://wallpaperscraft.com/download/pie_candles_birthday_1371/1080x1920</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/mask_108961</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>http://www.shutterstock.com/video/clip-5092847-stock-footage-happy-attractive-young-woman-having-a-video-chat-as-seen-from-the-point-of-view-of-the-computer.html</t>
   </si>
 </sst>
 </file>
@@ -720,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,6 +1001,14 @@
         <v>115</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -997,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,6 +1047,14 @@
       </c>
       <c r="B3" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/references.xlsx
+++ b/references.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Main Icons" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Door closed</t>
   </si>
@@ -396,16 +396,22 @@
     <t>https://wallpaperscraft.com/download/pie_candles_birthday_1371/1080x1920</t>
   </si>
   <si>
-    <t>http://www.flaticon.com/free-icon/mask_108961</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
     <t>Inside</t>
   </si>
   <si>
     <t>http://www.shutterstock.com/video/clip-5092847-stock-footage-happy-attractive-young-woman-having-a-video-chat-as-seen-from-the-point-of-view-of-the-computer.html</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/visible-opened-eye-interface-option_58976</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Hidden Eye</t>
+  </si>
+  <si>
+    <t>http://www.flaticon.com/free-icon/invisible_59394</t>
   </si>
 </sst>
 </file>
@@ -732,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,10 +1009,18 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1051,10 +1065,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/references.xlsx
+++ b/references.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\422Group4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Door closed</t>
   </si>
@@ -412,6 +407,12 @@
   </si>
   <si>
     <t>http://www.flaticon.com/free-icon/invisible_59394</t>
+  </si>
+  <si>
+    <t>Missed Visitor 2</t>
+  </si>
+  <si>
+    <t>https://squareonemediauk.files.wordpress.com/2012/04/tom-7957.jpg</t>
   </si>
 </sst>
 </file>
@@ -730,7 +731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -738,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,6 +1022,14 @@
       </c>
       <c r="B34" s="2" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/references.xlsx
+++ b/references.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinkal\Desktop\422Group4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
@@ -13,6 +18,9 @@
     <sheet name="Weather" sheetId="3" r:id="rId4"/>
     <sheet name="Sounds" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -463,8 +471,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -731,7 +767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -741,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1070,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
